--- a/rysunki/transfery_z_UE.xlsx
+++ b/rysunki/transfery_z_UE.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo_a\hubiC\Shiny_projects\MMT_book\rysunki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo_a\Documents\MMT_book\rysunki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F120CF61-B9AF-4B56-9805-0EA3953669DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20925" yWindow="1155" windowWidth="27750" windowHeight="14775" xr2:uid="{E83C23E7-B294-4A91-96B7-B8196C3D43CC}"/>
+    <workbookView xWindow="-20928" yWindow="1152" windowWidth="27756" windowHeight="14772"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -242,10 +241,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,10 +258,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -283,14 +277,18 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{653D7799-10B0-43FB-BA23-1A2DD3491BE2}"/>
-    <cellStyle name="Normalny 2" xfId="4" xr:uid="{17F3EBC1-9F47-4C14-8B9B-9D9BF33AE1FC}"/>
-    <cellStyle name="Normalny 3" xfId="3" xr:uid="{03F9C915-26F7-45F3-9144-E485D7732D44}"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="4"/>
+    <cellStyle name="Normalny 3" xfId="3"/>
+    <cellStyle name="Procentowy" xfId="2" builtinId="5"/>
+    <cellStyle name="Walutowy" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,7 +306,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -466,7 +464,7 @@
                   <c:v>2.1055355111573297E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6264551366343316E-2</c:v>
+                  <c:v>3.6073228195451307E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,6 +757,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -766,7 +765,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1867,11 +1865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E276C71-13E3-4630-9274-4A8973CE9C90}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,18 +1905,18 @@
       <c r="C2" s="1">
         <v>206126</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>B2/1000000/C2</f>
         <v>5.6210829929266562E-3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>(F2-100)/100</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>103.5</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1930,18 +1928,18 @@
       <c r="C3" s="1">
         <v>246216.8</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D18" si="0">B3/1000000/C3</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D19" si="0">B3/1000000/C3</f>
         <v>6.562106371295541E-3</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E18" si="1">(F3-100)/100</f>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E19" si="1">(F3-100)/100</f>
         <v>2.0999999999999942E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>102.1</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1953,18 +1951,18 @@
       <c r="C4" s="1">
         <v>274501.7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" si="0"/>
         <v>9.8810059136245788E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>101</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1976,18 +1974,18 @@
       <c r="C5" s="1">
         <v>313848.3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>1.4598973905546089E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>102.5</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1999,18 +1997,18 @@
       <c r="C6" s="1">
         <v>366040.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>1.0890701766607794E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>4.200000000000003E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>104.2</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2022,18 +2020,18 @@
       <c r="C7" s="1">
         <v>317040.59999999998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>1.8962577660400593E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>103.5</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2045,18 +2043,18 @@
       <c r="C8" s="1">
         <v>362190.9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>2.1363301952092111E-2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>2.5999999999999943E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>102.6</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2068,18 +2066,18 @@
       <c r="C9" s="1">
         <v>379860</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>2.7621537003106409E-2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>4.2999999999999969E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>104.3</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2091,18 +2089,18 @@
       <c r="C10" s="1">
         <v>387947</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>3.0596003740201626E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>3.7000000000000026E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>103.7</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2114,18 +2112,18 @@
       <c r="C11" s="1">
         <v>392310.7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>2.853642683210017E-2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>9.0000000000000566E-3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>100.9</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2137,18 +2135,18 @@
       <c r="C12" s="1">
         <v>408967.8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>3.1714632274227945E-2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2160,18 +2158,18 @@
       <c r="C13" s="1">
         <v>430465.8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>2.0406706516522335E-2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>-9.0000000000000566E-3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>99.1</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -2183,18 +2181,18 @@
       <c r="C14" s="1">
         <v>427091.8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>1.2834879843162525E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>-5.9999999999999429E-3</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>99.4</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -2206,18 +2204,18 @@
       <c r="C15" s="1">
         <v>467426.6</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>1.624465438209978E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>102</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -2229,20 +2227,20 @@
       <c r="C16" s="1">
         <v>497842.3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>2.2652347518481254E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>1.5999999999999945E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>101.6</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -2252,61 +2250,83 @@
       <c r="C17" s="1">
         <v>533599.9</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>2.1055355111573297E-2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>2.2999999999999972E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>102.3</v>
       </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2020</v>
       </c>
       <c r="B18" s="1">
         <v>18990577832</v>
       </c>
-      <c r="C18" s="17">
-        <v>523667.8</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="14">
+        <v>526445.19999999995</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>3.6264551366343316E-2</v>
-      </c>
-      <c r="E18" s="3">
+        <v>3.6073228195451307E-2</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>3.4000000000000058E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>103.4</v>
       </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11509144227</v>
+      </c>
+      <c r="C19" s="14">
+        <v>574385.4</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0037320285299733E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0999999999999941E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="K22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2">
-        <f>CORREL(D2:D18,E2:E18)</f>
-        <v>2.752005607126435E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="K23" s="2">
+        <f>CORREL(D2:D19,E2:E19)</f>
+        <v>2.7449650082115706E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2318,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99351A7A-2915-4771-86D4-949325292DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:O21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2327,123 +2347,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="19.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2452,11 +2472,11 @@
     <mergeCell ref="B8:O8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{3F88FCA2-CEAC-4308-9386-59F30137F171}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{41E4DF5C-89F1-444B-9B9E-BFAA0D67C170}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{CF1DFCC2-3F65-4F81-8582-6EBC3A6284A5}"/>
-    <hyperlink ref="F18" r:id="rId4" xr:uid="{CCC8AB53-A7B3-4D59-AE6D-9BC680708224}"/>
-    <hyperlink ref="B21" location="'Sheet 1'!A1" display="Sheet 1" xr:uid="{9152F2AD-2802-4FEC-A689-5C88A22AF292}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="E18" r:id="rId3"/>
+    <hyperlink ref="F18" r:id="rId4"/>
+    <hyperlink ref="B21" location="'Sheet 1'!A1" display="Sheet 1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>

--- a/rysunki/transfery_z_UE.xlsx
+++ b/rysunki/transfery_z_UE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo_a\Documents\MMT_book\rysunki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwo.augustynski\Documents\MMT_book\rysunki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20928" yWindow="1152" windowWidth="27756" windowHeight="14772"/>
+    <workbookView xWindow="-20925" yWindow="1155" windowWidth="27750" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1869,16 +1869,16 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:M24"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2004</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2005</v>
       </c>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2006</v>
       </c>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2007</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2008</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2009</v>
       </c>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2011</v>
       </c>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2013</v>
       </c>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2014</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2016</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2017</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -2308,7 +2308,29 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11265827540</v>
+      </c>
+      <c r="C20" s="14">
+        <v>656905.5</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20" si="2">B20/1000000/C20</f>
+        <v>1.7149845053816722E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20" si="3">(F20-100)/100</f>
+        <v>0.14400000000000004</v>
+      </c>
+      <c r="F20" s="3">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>7</v>
       </c>
@@ -2325,7 +2347,7 @@
         <v>2.7449650082115706E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>31</v>
       </c>
@@ -2345,22 +2367,22 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2368,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -2389,7 +2411,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -2405,27 +2427,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -2453,7 +2475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
